--- a/Prototypes/Prototype 2( Comamnd Line Style)/Data.xlsx
+++ b/Prototypes/Prototype 2( Comamnd Line Style)/Data.xlsx
@@ -356,10 +356,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F17:F18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -407,135 +407,75 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>453</v>
-      </c>
-      <c r="D2" t="n">
-        <v>191.66</v>
-      </c>
-      <c r="E2" t="n">
-        <v>86821.98</v>
-      </c>
-      <c r="F2" t="n">
-        <v>87143.61</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-321.63</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>BYND</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>149.23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>14923</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15070</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-147</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1866.05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18660.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18695.3</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-34.8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AMD</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.12</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30120</v>
-      </c>
-      <c r="F5" t="n">
-        <v>30170</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>181.04</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3620.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3623.2</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.4</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
